--- a/23_output_generated_mini_limited.xlsx
+++ b/23_output_generated_mini_limited.xlsx
@@ -553,9 +553,16 @@
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details.
-The system shall consider user plane latency requirements provided by the Access Federation (AF) when performing edge relocation. The system shall utilize the estimated user plane latency between the User Equipment (UE) and potential Proxy Server-UPF (PSA-UPF) provided by the Service Mobility Framework (SMF) to enhance the influence of AF on user plane latency requirements.
-Upon receiving an authorized user plane latency requirement request from the AF, the system shall inform the SMF via AF influenced Traffic Steering Enforcement Control (TSEC). The system shall then take appropriate actions to meet the user plane latency requirements, such as reconfiguring the user plane of the Packet Data Unit (PDU) Session.
-In the case of a maximum allowed user plane latency request, the system shall decide not to perform PSA UPF relocation if the serving PSA satisfies the maximum allowed user plane latency. Otherwise, the system shall perform PSA UPF relocation if the target PSA UPF satisfies the maximum user plane latency. The system shall select the PSA UPF with the shortest user plane latency among the PSA UPFs satisfying the maximum user plane latency requirements.</t>
+Requirement:
+1. The Service Management Function (SMF) shall consider user plane latency requirements provided by the Access Federation (AF) when evaluating the need for edge relocation of the Packet Data User Equipment (PDUE) to a Packet Data User Equipment Function (PSA-UPF).
+2. The SMF shall utilize the estimated user plane latency information known to the Service Management Function (SMF) from the Access Federation (AF) to enhance the influence of AF in the decision-making process for edge relocation based on the user plane latency requirements requested by the AF.
+3. The Access Federation (AF) shall authorize the provision of user plane latency requirements to the network via an AF traffic influence request, as described in clause 5.2.6.7 of TS 23.502 [3].
+4. The user plane latency requirements provided by the AF may include the maximum allowed user plane latency, which the SMF shall use to determine if edge relocation is necessary to ensure that the user plane latency does not exceed the specified value.
+5. The SMF shall decide not to perform PSA UPF relocation if the serving PSA satisfies the maximum allowed user plane latency as requested by the AF. Otherwise, the SMF may opt to perform PSA UPF relocation if the target PSA UPF meets the maximum user plane latency requirements.
+6. In the event of multiple PSA UPFs satisfying the maximum user plane latency requirements, the SMF shall select the PSA UPF with the shortest user plane latency for relocation.
+7. The Authority Control Function (PCF) shall authorize the AF's request for user plane latency requirements.
+8. Upon authorization by the PCF, the AF shall inform the SMF of the user plane latency requirements via the Traffic Steering Enforcement Control (TSEC) in PCC rules, as per clause 6.3.1 of TS 23.503 [4].
+9. After receiving the user plane latency requirements from the AF via PCF,</t>
         </is>
       </c>
     </row>

--- a/23_output_generated_mini_limited.xlsx
+++ b/23_output_generated_mini_limited.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirement 1: Edge Computing services must be hosted within proximity to the User Equipment (UE)'s access point of attachment to ensure efficient service delivery.
-Requirement 2: The deployment of Edge Hosting Environment (EHE) should support 5G services beyond the Public Switched Telephone Network (PSTN) Universal Profile (UPF), and it should be controllable by either the operator or third-party service providers.
-Requirement 3: Edge Computing features defined in the specification must be applicable to both Public Land Mobile Networks (PLMN) and System Nodes of Public Networks (SNPN).
-Requirement 4: The Local Domain Name (DN) where EHE is deployed should maintain user plane connectivity with both centrally deployed PSA and locally deployed PSA of the same Domain Name Network (DNN).
-Requirement 5: Edge Computing capabilities, as described in clause 5.13 of TS 23.501 [2], should include local routing and traffic steering, session and service continuity, and Automatic Frequency Selection (AF) influenced traffic routing.
-Requirement 6: The serving network should support Edge Computing, particularly for Local Break Out roaming scenarios in PLMN access. However, the serving network should not have control over User Requested Service Point (URSP) rules for Automatic Frequency Selection (AF) in the Access Point System (APS), as this influences the User Equipment (UE) selection of a specific Edge Computing related Domain Name Network (DNN) and Service Node Selection Algorithm (S-NSSAI).</t>
+          <t xml:space="preserve"> 4.1 General Requirements for Edge Computing in 23548-i20.docx
+4.1.1 Edge Computing Concept:
+Edge Computing is defined as a distributed computing paradigm that brings computation and data storage closer to the location where it is needed, to improve response times and save bandwidth. In the context of 23548-i20.docx, Edge Computing enables operator and third-party services to be hosted near the User Equipment's (UE's) access point of attachment. This proximity facilitates efficient service delivery by reducing end-to-end latency and the load on the transport network.
+4.1.2 Support for Edge Hosting Environment (EHE):
+The 23548-i20.docx specification supports the deployment of Edge Hosting Environments (EHE) beyond the Public Switched Access Function (PSAF) Universal Profile Function (UPF). These EHEs can be managed by either the operator or third parties, providing flexibility in the deployment and management of edge computing services.
+4.1.3 Applicability to PLMN and SNPN:
+The Edge Computing features outlined in the 23548-i20.docx specification are applicable to both Public Land Mobile Networks (PLMN) and Signalling Networks (SNPN). This ensures that the benefits of Edge Computing can be leveraged across different network layers and types.
+4.1.4 Local Part of the DN for EHE Deployment:
+The Local Part of the Domain Name (DN) in which the EHE is deployed may have user plane connectivity with both a centrally deployed Public Switched Access Function (PSAF) and a locally deployed PSAF of the same Domain Name Network (DNN). This connectivity allows for efficient routing and traffic steering, as well as session and service continuity.
+4.1.5 AF Influenced Traffic Routing:
+The 23548-i20.docx specification leverages Local Access Function (LAF) enablers, as described in clause 5.13 of TS 23.501 [2], to influence Access Function (AF</t>
         </is>
       </c>
     </row>
@@ -511,84 +516,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The requirement for Edge Relocation in the context of EAS changes and/or PSA UPF relocation is as follows:
-1. Edge Relocation procedures must support changes in EAS instances and/or the relocation of PSA UPF.
-2. Edge Relocation can be initiated by an AF request, such as load balancing between EAS instances in the EHE, or by network triggers, such as UE mobility.
-3. Upon Edge Relocation, the user plane path must be reconfigured to maintain optimal performance. This can be achieved through PDU Session re-establishment using SSC mode 2/3 mechanisms or Local PSA UPF relocation using UL CL and BP mechanisms. The procedures for these actions are detailed in TS 23.501 [2] and TS 23.502 [3].
-4. Following Edge Relocation, the UE may need to re-discover a new EAS and establish connectivity to continue service. The re-discovery process is outlined in clause 6.2.
-5. Edge Relocation may also result in AF relocation, such as during initial PDU Session Establishment or due to Edge Relocation itself. The AF request for simultaneous connectivity for source and target PSA is specified in clause 4.3.6.3 of TS 23.502 [3].
-6. The trigger of Edge Relocation by the network is specified in clause 4.3.6.3 of TS 23.502 [3]. Some EAS (re)Discovery procedures in clause 6.2 may also trigger Edge Relocation.
-7. Edge Relocation procedures must include the following:
+          <t xml:space="preserve"> Based on the provided information from the 23548-i20.docx, the following requirements can be derived for the section 6.3.1 General:
+1. Edge Relocation refers to the procedures supporting EAS (Edge Application Service) changes and/or PSA (Protocol Support Architecture) UPF (User Plane Function) relocation.
+2. Edge Relocation may be triggered by an AF (Access Federation) request due to load balance between EAS instances in the EHE (Evolved Higher Evolved Node) or by the network, such as UE (User Equipment) mobility.
+3. With Edge Relocation, the user plane path may be reconfigured to optimize it. This can be achieved through PDU Session re-establishment using SSC (Sess. Client) mode 2/3 mechanisms or Local PSA UPF relocation using UL (User Location) CL (Connection Local) and BP (Buffer Pool) mechanisms. The corresponding procedures are defined in TS\xa023.501\xa0[2] and TS\xa023.502\xa0[3].
+4. Edge Relocation may result in AF (Access Federation) relocation, for example, as part of initial PDU Session Establishment, where a central AF may be involved. However, due to Edge Relocation, another AF serving the Edge Applications may be selected.
+5. The trigger of Edge Relocation by the network is specified in clause\xa04.3.6.3 of TS\xa023.502\xa0[3]. Some EAS (re)Discovery procedures in clause\xa06.2 may also trigger Edge Relocation.
+6. This clause further describes the following procedures:
    - Edge Relocation involving AF change
    - Edge Relocation using EAS IP replacement
    - AF request for simultaneous connectivity for source and target PSA
    - Packet buffering for low Packet Loss
    - Edge Relocation considering User Plane Latency Requirements
    - Edge Relocation triggered by AF
-   - Edge Relocation for a set of UEs for common DNAI
-8. Annex F provides an example procedure for EAS Relocation on Release 16 capabilities.
-9. For non-roaming</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;6.3.6	Edge Relocation Considering User Plane Latency Requirement&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>23548-i20.docx</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1053281166970637</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['', 'Edge relocation may be performed considering user plane latency requirements provided by the AF.', '', 'In a network deployment where the estimated user plane latency between the UE and the potential PSA-UPF is known to the SMF, the 5GC provides the enhancement of AF influence to consider the user plane latency requirements requested by the AF so that the SMF decides to relocate the PSA-UPF based on AF requested requirements.', '', 'The AF may provide user plane latency requirements to the network via AF traffic influence request as described in clause\xa05.2.6.7 of TS\xa023.502\xa0[3]. The user plane latency requirements may include the following information:', '', '-\tMaximum allowed user plane latency: The value of this information is the target user plane latency. The SMF may use this value to decide whether edge relocation is needed to ensure that the user plane latency does not exceed the value. The SMF may decide whether to relocate the PSA UPF to satisfy the user plane latency.', '', 'The AF request on the user plane latency requirements are authorized by PCF. The PCF checks whether the AF has an authority to make such a request.', '', 'Once the user plane latency requirements requested by AF is authorized by the PCF, the AF request including the requirements is informed to the SMF via AF influenced Traffic Steering Enforcement Control (see clause\xa06.3.1 of TS\xa023.503\xa0[4]) in PCC rules. After receiving the user plane latency requirements from AF via PCF, the SMF may take appropriate actions to meet the requirements e.g. by reconfiguring the user plane of the PDU Session as described in the step\xa06 of Figure 4.3.6.2-1 in TS\xa023.502\xa0[3] with the following considerations:', '', '-\tIn the case that the maximum allowed user plane latency is requested, the SMF decides not to perform PSA UPF relocation if the serving PSA satisfies the maximum allowed user plane latency. Otherwise, the SMF may decide to perform PSA UPF relocation if the target PSA UPF satisfies the maximum user plane latency. The SMF may select the PSA UPF with the shortest user plane latency among the PSA UPFs satisfying the maximum user plane latency requirements.', '']</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details.
-Requirement:
-1. The Service Management Function (SMF) shall consider user plane latency requirements provided by the Access Federation (AF) when evaluating the need for edge relocation of the Packet Data User Equipment (PDUE) to a Packet Data User Equipment Function (PSA-UPF).
-2. The SMF shall utilize the estimated user plane latency information known to the Service Management Function (SMF) from the Access Federation (AF) to enhance the influence of AF in the decision-making process for edge relocation based on the user plane latency requirements requested by the AF.
-3. The Access Federation (AF) shall authorize the provision of user plane latency requirements to the network via an AF traffic influence request, as described in clause 5.2.6.7 of TS 23.502 [3].
-4. The user plane latency requirements provided by the AF may include the maximum allowed user plane latency, which the SMF shall use to determine if edge relocation is necessary to ensure that the user plane latency does not exceed the specified value.
-5. The SMF shall decide not to perform PSA UPF relocation if the serving PSA satisfies the maximum allowed user plane latency as requested by the AF. Otherwise, the SMF may opt to perform PSA UPF relocation if the target PSA UPF meets the maximum user plane latency requirements.
-6. In the event of multiple PSA UPFs satisfying the maximum user plane latency requirements, the SMF shall select the PSA UPF with the shortest user plane latency for relocation.
-7. The Authority Control Function (PCF) shall authorize the AF's request for user plane latency requirements.
-8. Upon authorization by the PCF, the AF shall inform the SMF of the user plane latency requirements via the Traffic Steering Enforcement Control (TSEC) in PCC rules, as per clause 6.3.1 of TS 23.503 [4].
-9. After receiving the user plane latency requirements from the AF via PCF,</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;6.4.1	General&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>23548-i20.docx</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1018510028783159</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['', 'Some real time network information, e.g. user path latency, are useful for application layer. In this release, in order to expose network information timely to local AF, the L-PSA UPF may expose i.e. QoS monitoring results as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2], to the local AF.', '', 'NOTE\xa01:\tLocal PSA UPF can expose the QoS monitoring results to local AF via N6. How to deliver the information on N6 is out of the scope of the present document.', '', 'NOTE\xa02:\tSending QoS monitoring information that has not been properly integrated over time, i.e. with over-high frequency, can increase risk that the application may over-react to instantaneous radio events/conditions e.g. leading to service instability.', '']</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide real-time network information, such as user path latency, to the application layer for enhanced performance and user experience. In this release, the Local PSA UPF (User Path Stateful Application Function) is responsible for exposing Quality of Service (QoS) monitoring results, as outlined in clause 5.33.3 of TS 23.501 [2], to the local Application Function (AF). It is important to note that the method of delivering this information over the network (via N6) is beyond the scope of this document.
-Additionally, the system must ensure that the QoS monitoring information is properly integrated over time and not sent with an overly high frequency. This is to mitigate the risk of the application layer over-reacting to instantaneous radio events or conditions, which could potentially lead to service instability. The system should implement appropriate mechanisms to balance the frequency of QoS monitoring information delivery, ensuring timely exposure without compromising the stability of the application layer.</t>
+   - Edge Relocation for a set of UEs for common DNAI (Diameter Network Access Identity)</t>
         </is>
       </c>
     </row>

--- a/23_output_generated_mini_limited.xlsx
+++ b/23_output_generated_mini_limited.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,66 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.3.6	Edge Relocation Considering User Plane Latency Requirement&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23548-i20.docx</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1053281166970637</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['', 'Edge relocation may be performed considering user plane latency requirements provided by the AF.', '', 'In a network deployment where the estimated user plane latency between the UE and the potential PSA-UPF is known to the SMF, the 5GC provides the enhancement of AF influence to consider the user plane latency requirements requested by the AF so that the SMF decides to relocate the PSA-UPF based on AF requested requirements.', '', 'The AF may provide user plane latency requirements to the network via AF traffic influence request as described in clause\xa05.2.6.7 of TS\xa023.502\xa0[3]. The user plane latency requirements may include the following information:', '', '-\tMaximum allowed user plane latency: The value of this information is the target user plane latency. The SMF may use this value to decide whether edge relocation is needed to ensure that the user plane latency does not exceed the value. The SMF may decide whether to relocate the PSA UPF to satisfy the user plane latency.', '', 'The AF request on the user plane latency requirements are authorized by PCF. The PCF checks whether the AF has an authority to make such a request.', '', 'Once the user plane latency requirements requested by AF is authorized by the PCF, the AF request including the requirements is informed to the SMF via AF influenced Traffic Steering Enforcement Control (see clause\xa06.3.1 of TS\xa023.503\xa0[4]) in PCC rules. After receiving the user plane latency requirements from AF via PCF, the SMF may take appropriate actions to meet the requirements e.g. by reconfiguring the user plane of the PDU Session as described in the step\xa06 of Figure 4.3.6.2-1 in TS\xa023.502\xa0[3] with the following considerations:', '', '-\tIn the case that the maximum allowed user plane latency is requested, the SMF decides not to perform PSA UPF relocation if the serving PSA satisfies the maximum allowed user plane latency. Otherwise, the SMF may decide to perform PSA UPF relocation if the target PSA UPF satisfies the maximum user plane latency. The SMF may select the PSA UPF with the shortest user plane latency among the PSA UPFs satisfying the maximum user plane latency requirements.', '']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details.
+6.3.6 Edge Relocation Considering User Plane Latency Requirement
+The Service Management Function (SMF) shall consider user plane latency requirements provided by the Access Federation (AF) when deciding on edge relocation. The SMF shall utilize the following information provided by the AF:
+- Maximum allowed user plane latency: The SMF shall use this value to determine if edge relocation is necessary to ensure that the user plane latency does not exceed the specified value. If the current serving Point of Presence (PSA) does not meet the maximum allowed user plane latency, the SMF may opt to relocate the PSA UPF. The SMF shall select the PSA UPF that satisfies the maximum user plane latency and has the shortest user plane latency among all PSA UPFs meeting the requirement.
+The AF's request for user plane latency requirements shall be authorized by the Policy Control Function (PCF). The PCF shall verify if the AF has the authority to make such a request.
+Upon authorization of the AF's user plane latency requirements by the PCF, the SMF shall be informed of the requirements via AF influenced Traffic Steering Enforcement Control (TSEC), as per PCC rules. Following receipt of the user plane latency requirements, the SMF may take appropriate actions to meet these requirements, which may include reconfiguring the user plane of the Packet Data Unit (PUDU) Session as described in step 6 of Figure 4.3.6.2-1 in TS 23.502 [3].</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.4.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23548-i20.docx</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1018510028783159</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['', 'Some real time network information, e.g. user path latency, are useful for application layer. In this release, in order to expose network information timely to local AF, the L-PSA UPF may expose i.e. QoS monitoring results as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2], to the local AF.', '', 'NOTE\xa01:\tLocal PSA UPF can expose the QoS monitoring results to local AF via N6. How to deliver the information on N6 is out of the scope of the present document.', '', 'NOTE\xa02:\tSending QoS monitoring information that has not been properly integrated over time, i.e. with over-high frequency, can increase risk that the application may over-react to instantaneous radio events/conditions e.g. leading to service instability.', '']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The requirement for section 6.4.1 General, as per the 23548-i20.docx, should encompass the following points:
+1. The document must detail the provision of real-time network information, such as user path latency, which is beneficial for the application layer.
+2. The Local PSA UPF (User Plane Separation Architecture) should be capable of exposing Quality of Service (QoS) monitoring results. These results should be in accordance with the specifications outlined in clause 5.33.3 of TS 23.501 [2].
+3. The Local PSA UPF is responsible for delivering this QoS monitoring information to the local Application Function (AF) (Local AF). However, the method of information delivery over the Network Service Function (N6) is not covered in this document.
+4. It is important to note that the Local PSA UPF should avoid sending QoS monitoring information that has not been properly integrated over time. This includes information with a high frequency that could potentially lead to the application over-reacting to instantaneous radio events or conditions. Such over-reactions may result in service instability.
+5. The requirement should emphasize the importance of balancing the timeliness of network information exposure with the potential risks of over-reacting to transient network conditions.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/23_output_generated_mini_limited.xlsx
+++ b/23_output_generated_mini_limited.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,23 +498,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>&lt;h1&gt;E.4	Session Breakout&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23548-i20.docx</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1518914118683455</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['', 'As traffic offload via UL CL/BP is not supported over EPC, when a PDN connection is initiated in EPS or a PDU Session is handed-over to EPS, the SMF+PGW-C can send to the EASDF DNS message handling rules requesting the EASDF to transparently forward any DNS traffic. The SMF+PGW-C can send to the EASDF new DNS message handling rules (with actual reporting and actions as defined in clause 6.2.3.2.2) when the PDU Session/PDN connection is handed-over (back) to 5GS.', '', 'When a PDN connection is initiated in EPS, the SMF+PGW-C can also select a normal DNS Server (i.e. different from an EASDF) to serve the PDN Connection, and then indicate to the UE to use the EASDF as DNS Server when the PDU Session/PDN connection is moved to 5GS.', '', '', '', '', 'Annex F (Informative):', 'EAS Relocation on Simultaneous Connectivity over Source and Target PSA', '', 'This annex describes how EAS relocation can make use of network capabilities that, at PSA change, provide simultaneous connectivity over the source and the target PSA during a transient period.', '', 'At PSA change, simultaneous connectivity to Application over former and new PSA allows the application to build its own EAS relocation solution and minimize the impact on latency:', '', '-\tIf the decision for when to start using a target EAS is taken by the application, this decision can consider application specific aspects, like for example, the time interval between packets or end of a video frame to minimize impact on latency.', '', '-\tWhen there are multiple applications on a PDU Session, if connectivity over the former PSA is maintained for some time, each application can schedule EAS relocation to suit the application specific needs without interfering with the other applications.', '', 'The procedure is shown in below Figure F-1:', '', '----media/image36.emf----', '', 'Figure F-1: EAS relocation on simultaneous connectivity over source and target PSA', '', 'The user has established a PDU Session. This PDU Session has a local PSA (source L-PSA), which could be the PSA of a PDU Session with Distributed Anchor connectivity or one additional local PSA of a PDU Session with Session Breakout. There has been an EAS Discovery procedure as described in clauses 6.2.2.2 and 6.2.3.2 (the procedure is conditioned to the connectivity model) for one or more applications. Application traffic is served by source EAS over the Local PSA.', '', '1.\tUser mobility triggers SMF to select a new Local PSA (target L-PSA) that is closer to current user location. In this scenario, the re-anchoring procedures that provide Simultaneous Connectivity over Source and Target PSA are described in TS\xa023.502\xa0[3]:', '', '-\tFor Distributed Anchor, in clause\xa04.3.5.2 for Change of SSC mode 3 PDU Session Anchor with multiple PDU Sessions and in clause\xa04.3.5.3 for Change of SSC mode 3 PDU Session Anchor with IPv6 Multi-homed PDU Session.', '', '-\tFor Session Breakout, in clause\xa04.3.5.7 for Simultaneous change of Branching Point or UL CL and additional PSA for a PDU Session.', '', '\tThe SMF may notify an AF for the early and/or late notifications on the UP-path change event as described in clause\xa04.3.6.3 in TS\xa023.502\xa0[3].', '', '2.\tWhen the connectivity is available on target L-PSA, the connectivity via source L-PSA is still available during certain time (that is provisioned and controlled as described in these TS\xa023.502\xa0[3] procedures). The application traffic can continue to run over the established UE-EAS connections.', '', '3.\tThe EAS Rediscovery Procedures described in clauses 6.2.2.3 and 6.2.3.3 allow the UE to discover a new EAS (i.e. target EAS) for the application that is closer to the UE over the new path (there could be multiple triggers as described in those respective clauses). If multiple applications are being served by this PDU Session, each of them performs rediscovery. This discovery procedure may lead to EAS reselection.', '', '4.\tNew L4 connections may now be established between the UE and the target EAS with the following considerations:', '', '-\tFor Distributed anchor or session breakout with MH, the UE uses the IP address /prefix associated with the target PSA (that is referred to as IP#2 in Figure F-1).', '', '-\tFor Session breakout with ULCL, there has not been connection/IP address change. Same IP address is still used by UE (that is referred to as IP#1 in Figure F-1).', '', 'NOTE\xa01:\tIf Session Breakout is used for connectivity and if the application wants to build service continuity on simultaneous connections, source EAS and target EAS cannot share the same IP address (e.g. by using anycast).', '', '\tEAS Relocation may involve EAS context migration in the case of stateful applications. The following examples are part of the application implementation details and fall out of 3GPP specification scope:', '', '-\tIn case that SMF notifies an AF for the early and/or late notification in Step 1, based on the notifications, the AF can interact with the source Application server, which can recreate the context to the target EAS and then provide switching instructions to the Application client.', '', '-\tThe Application server can recreate the service context when first contacted by the client using a Context Id: when suitable, the application client sets up a connection to the target EAS including a Context Id. The target EAS uses this Context Id to retrieve the latest service context available and subsequent updates, if needed.', '', '-\tThe Application server can recreate the context when first contacted by the client using a Context Id: the application client sets up a connection to the target EAS but for some time it sends traffic to both source and target EAS. In this way it triggers the context migration before the actual EAS switch.', '', '-\tThe source Application server is able to provide the client with switching instructions when a new EAS is selected: upon UE request (if UE selected) or as an EAS initiative (if server selected), the source EAS provides the Application client with switching instructions while it continues to serve traffic and drives any context migration towards the selected target EAS.', '', 'NOTE\xa02:\tThis application procedure may be designed to solve EAS relocation in all scenarios, not only when triggered by Edge Relocation, which may simplify the application design.', '', '5.\tAt some points all traffic for all applications in this session are sending traffic to their target EAS only and traffic ceases over the source L- PSA. The source L-PSA is then released. The timers should be set to allow EAS relocation.', '', '6.\tUE only maintains connection(s) to target EAS(s).', '', '', '', '', 'Annex G (Informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA2#143E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;S2-2100114&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;Proposed skeleton approved at S2#143E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#92E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-210365&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for presentation to TSG SA#92E for information&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#93E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-210942&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for presentation to TSG SA#93E for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#93E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for publication after SA#93E approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related to uniqueness of Update related to a buffered DNS message in EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction and removal of misleading Note&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Not all EC scenarios requires EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarify the local AF subscription for the QoS Monitoring during UE mobility&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updates on EAS Discovery Procedure with EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mega CR for minor fixes to TS 23.548&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Neasdf_DNSContext services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EAS rediscovery: Edge DNS Client based EAS (re-)discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0031&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE authorization for 5GC assisted EAS discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updating related to EAS Discovery Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Improvements and correction to annex C &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Change of DNS server address during EPC IWK&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of EASDF functional description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Added the situation of AF relocation to uplink Packet Buffer&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0042&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Local NEF selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related EHE in EC architecture&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of EAS discovery procedure and BaselineDNSPattern management in EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;On NAT between PSA UPF and EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removing inconsistency in the definition of ECS Address Configuration Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections of EDC functionality description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related to EAS IP Address in EDI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of EAS Deployment Information Management procedures and services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Parameter supplement of EDI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of ECS Address Configuration Information to SA6\'s definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#97E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220777&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EDNS Client Subnet option correction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications for local event notification control&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support of influencing UPF and EAS (re)location for collections of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;18.0.0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4 common EAS enforcement for set of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Procedure for PDU Session supporting HR-SBO in VPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influencing UPF and EAS (re)location for collections of UEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EAS Re-discovery Procedure with EASDF in HR roaming scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0083&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Edge Relocation within the same hosting PLMN\'s EHEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;13&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Home Routed-Session Breakout (HR-SBO) support&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4: AF traffic influence for common EAS, DNAI selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0088&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The EAS discovery procedure with V-EASDF using IP replacement mechanism for supporting HR-SBO&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling AF traffic influence for HR-SBO PDU Sessions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;9&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DNAI mapping based on conclusions in TR 23.700-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4 23.548 common EAS enforcement for set of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#5 EDI extension for EAS discovery for GSMA OPG scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Common DNAI relocation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECS Address Configuration Information delivery in roaming&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Information sharing between PLMN to support GSMA OPG&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Select common DNAI/EAS for a set of UEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0105&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EASDF functional description update&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0109&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL CL/BP insertion for common EAS Discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;MCC correction to implementation of CR0095R1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Home Routed-Session Breakout (HR-SBO) - offload policy structure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0120&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EAS Discovery: Resolve ENs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EACI provisioning from VPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0123&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EDI provision for HR-SBO&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0124&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="fo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E.4	Session Breakout
+This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>&lt;h3&gt;6.3.1	General&lt;/h3&gt;</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>23548-i20.docx</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>0.1475196877267846</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>['', 'Edge Relocation refers to the procedures supporting EAS changes and/or PSA UPF relocation.', '', 'Edge Relocation may be triggered by an AF request (e.g. due to the load balance between EAS instances in the EHE) or by the network (e.g. due to the UE mobility).', '', 'With Edge Relocation, the user plane path may be re-configured to keep it optimized. This may be done by PDU Session re-establishment using SSC mode 2/3 mechanisms or Local PSA UPF relocation using UL CL and BP mechanisms. The corresponding procedures are defined in TS\xa023.501\xa0[2] and TS\xa023.502\xa0[3].', '', 'Due to Edge Relocation, the UE may need to re-discover a new EAS and establish the connectivity to the new EAS to continue the service. The re-discovery of EAS is specified in clause\xa06.2.', '', 'Edge Relocation may result in AF relocation, for example, as part of initial PDU Session Establishment, a central AF may be involved. However, due to Edge Relocation another AF serving the Edge Applications is selected.', '', 'The trigger of Edge Relocation by the network is specified in clause\xa04.3.6.3 of TS\xa023.502\xa0[3]. Some EAS (re)Discovery procedures in clause\xa06.2 may also trigger Edge Relocation.', '', 'This clause further describes the following procedures:', '', '-\tEdge Relocation involving AF change.', '', '-\tEdge Relocation using EAS IP replacement.', '', '-\tAF request for simultaneous connectivity for source and target PSA.', '', '-\tPacket buffering for low Packet Loss.', '', '-\tEdge Relocation considering User Plane Latency Requirements.', '', '-\tEdge Relocation triggered by AF', '', '-\tEdge Relocation for a set of UEs for common DNAI.', '', 'Annex F describes example procedure for EAS Relocation on Release 16 capabilities.', '', 'For non-roaming PDU Session, the 5GC functions in the following clauses are located in the HPLMN.', '', 'For LBO roaming PDU Session, the 5GC functions in the following clauses are located in the serving VPLMN.', '', 'For HR-SBO PDU Sessions specified in clause\xa06.7, the AF may send to V-NEF an AF request to influence traffic routing as described in clause\xa04.3.6 of TS\xa023.502\xa0[3] for supporting Edge Relocation (e.g. for the purpose of subscription to UP path management events, especially for the change of local PSA UPF in VPLMN). In this case, the steps involving PCF in the following clauses are skipped.', '']</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Based on the provided information from the 23548-i20.docx, the following requirements can be derived for the section 6.3.1 General:
 1. Edge Relocation refers to the procedures supporting EAS (Edge Application Service) changes and/or PSA (Protocol Support Architecture) UPF (User Plane Function) relocation.
@@ -533,26 +559,26 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>&lt;h3&gt;6.3.6	Edge Relocation Considering User Plane Latency Requirement&lt;/h3&gt;</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>23548-i20.docx</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>0.1053281166970637</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>['', 'Edge relocation may be performed considering user plane latency requirements provided by the AF.', '', 'In a network deployment where the estimated user plane latency between the UE and the potential PSA-UPF is known to the SMF, the 5GC provides the enhancement of AF influence to consider the user plane latency requirements requested by the AF so that the SMF decides to relocate the PSA-UPF based on AF requested requirements.', '', 'The AF may provide user plane latency requirements to the network via AF traffic influence request as described in clause\xa05.2.6.7 of TS\xa023.502\xa0[3]. The user plane latency requirements may include the following information:', '', '-\tMaximum allowed user plane latency: The value of this information is the target user plane latency. The SMF may use this value to decide whether edge relocation is needed to ensure that the user plane latency does not exceed the value. The SMF may decide whether to relocate the PSA UPF to satisfy the user plane latency.', '', 'The AF request on the user plane latency requirements are authorized by PCF. The PCF checks whether the AF has an authority to make such a request.', '', 'Once the user plane latency requirements requested by AF is authorized by the PCF, the AF request including the requirements is informed to the SMF via AF influenced Traffic Steering Enforcement Control (see clause\xa06.3.1 of TS\xa023.503\xa0[4]) in PCC rules. After receiving the user plane latency requirements from AF via PCF, the SMF may take appropriate actions to meet the requirements e.g. by reconfiguring the user plane of the PDU Session as described in the step\xa06 of Figure 4.3.6.2-1 in TS\xa023.502\xa0[3] with the following considerations:', '', '-\tIn the case that the maximum allowed user plane latency is requested, the SMF decides not to perform PSA UPF relocation if the serving PSA satisfies the maximum allowed user plane latency. Otherwise, the SMF may decide to perform PSA UPF relocation if the target PSA UPF satisfies the maximum user plane latency. The SMF may select the PSA UPF with the shortest user plane latency among the PSA UPFs satisfying the maximum user plane latency requirements.', '']</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details.
 6.3.6 Edge Relocation Considering User Plane Latency Requirement
@@ -563,26 +589,63 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.2.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23548-i20.docx</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1536793440927784</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['', 'In Edge Computing deployment, an application service may be served by multiple Edge Application Servers typically deployed in different sites. These multiple Edge Application Servers that host service may use a single IP address (anycast address) or different IP addresses. To start such a service, the UE needs to know the IP address(es) of the Application Server(s) serving the service. The UE may do a discovery to get the IP address(es) of a suitable Edge Application Server (e.g. the closest one), so that the traffic can be locally routed to the Edge Application Server and service latency, traffic routing path and user service experience can be optimized.', '', 'EAS discovery is the procedure by which a UE discovers the IP address(es) of a suitable Edge Application Server(s) using Domain Name System (DNS). EAS Re-discovery is the EAS Discovery procedure that takes place when the previously discovered Edge Application Server cannot be used or may have become non-optimal (e.g. at edge relocation).', '', 'The DNS server to be used for EAS (re-)discovery may be deployed in different locations in the network as Central DNS (C-DNS) server or as Local DNS (L-DNS) resolver/server.', '', 'NOTE\xa01:\tThe C-DNS servers and/or L-DNS resolvers/servers can use an anycast address.', '', 'NOTE\xa02:\tThe C-DNS servers or L-DNS resolvers/servers can contact any other DNS servers for recursive queries, which is out of scope of this specification.', '', "NOTE\xa03:\tThis specification describes the discovery procedure based on 5GS NFs as to ensure the UE is served by the application service closest to the UE's point of attachment. However, this does not exclude other upper layer solution that can be adopted by operator or service provider, like the EAS Discovery procedure defined in TS\xa023.558\xa0[5], or other alternatives shown in Annex A and Annex B. How those other solutions work, or whether they are able to guarantee the closest application service for the UE, is out of the scope of this specification.", '', 'In order to provide a translation of the FQDN of an EAS into the address of an EAS as topologically close as possible to the UE, the Domain Name System may use following information:', '', '-\tThe source IP address of the incoming DNS Query; and/or,', '', '-\tan EDNS Client Subnet (ECS) option (as defined in RFC 7871\xa0[6]).', '', 'NOTE\xa04:\tUE IP address can be subject to privacy restrictions, which means that it is not to be sent to Authoritative DNS / DNS Resolvers outside the network operator within EDNS Client Subnet option or as Source IP address of the DNS Query. UE source IP address can be protected by using NAT mechanism.', '', 'EAS (re-)discovery procedures described in this specification should use the top level domains (TLDs) in the public namespace by default. ', '', 'If a private namespace is used, an Edge Computing Service Provider (ECSP) can provision DNS information in the EAS Deployment information via AF request with its Application Identifier, or DNN and NSSAI. Since private namespaces do not have a common root server or naming, the DNS information for each ECSP should be stored individually to prevent any overwriting of resolution entries.', '', 'NOTE\xa05:\tThe DNS information provided by ECSP in the EAS Deployment Information can be used to select the DNS settings for a PDU Session mainly if the PDU Session is specific for the ECSP services.', '', 'If the UE applications want to discover/access EAS by using the mechanisms defined in this TS, the UE shall support receiving DNS settings in PCO during PDU Session Establishment and PDU Session Modification, and the DNS Queries generated by the UE for these applications shall be sent to the DNS server/resolver (e.g. EASDF) indicated by the SMF. To ensure this, the application in the UE either requests the EDC functionality to send a DNS Query or, alternatively, uses the EDC functionality to get the configuration of the DNS Server (IP address and, conditionally, DNS security information of the EASDF/DNS resolver; see TS\xa024.501\xa0[11] and TS\xa033.501\xa0[12]) indicated by the SMF (see clauses 5.2.1 and 6.2.4) then resolves the FQDN by its own DNS mechanism.', '', 'NOTE\xa06:\tIt is the decision of the application in the UE whether to use the EDC functionality or not to resolve the FQDN. If it does not use the EDC functionality, the usage of the EAS (re-)discovery procedures defined in clause\xa06.2 cannot be ensured.', '', 'The case of EAS (Re-)discovery over Distributed Anchor connectivity model is described in clause 6.2.2. For Multiple PDU Sessions connectivity model, the description in clause 6.2.2 also applies to the PDU Session(s) with Local PSA. The case of EAS (Re-)discovery over Session Breakout connectivity model is described in clause 6.2.3.', '']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The requirement for section 6.2.1 of the document titled "23548-i20" based on the provided text is as follows:
+6.2.1 General:
+The document must describe the Edge Application Server (EAS) discovery and re-discovery procedures within an Edge Computing deployment. It should specify that an application service may be hosted by multiple EAS, typically located in different sites, and may use a single IP address (anycast address) or multiple IP addresses. The UE must be capable of discovering the IP addresses of the EAS serving a particular service.
+The document should outline the following key points:
+1. The UE can discover the IP addresses of suitable EAS using Domain Name System (DNS) discovery procedures.
+2. EAS re-discovery is necessary when the previously discovered EAS becomes non-optimal, such as during edge relocation.
+3. The DNS server for EAS discovery can be either a Central DNS (C-DNS) server or a Local DNS (L-DNS) resolver/server, which may use an anycast address.
+4. The DNS server can utilize information such as the source IP address of the incoming DNS query and the EDNS Client Subnet (ECS) option to translate the FQDN of an EAS into the address of the EAS that is topologically closest to the UE.
+5. The document should note that the UE's IP address may be subject to privacy restrictions, and mechanisms like NAT may be used to protect the source IP address.
+6. The EAS discovery procedures should default to using public top-level domains (TLDs). If a private namespace is used, the Edge Computing Service Provider (ECSP) can provide DNS information via an Application Identifier (AFI) request.
+7. The document should mention that the DNS information provided by the ECSP in the EAS Deployment Information should be stored individually to prevent overwriting of resolution entries.
+8. The document should state that the UE applications must support receiving DNS settings in Packet Control Object (PCO) during PDU Session Establishment and PDU Session Modification.
+9. The document should clarify that it is the application in the UE's decision whether to use the EDC functionality to resolve the FQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>&lt;h3&gt;6.4.1	General&lt;/h3&gt;</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>23548-i20.docx</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C7" t="n">
         <v>0.1018510028783159</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>['', 'Some real time network information, e.g. user path latency, are useful for application layer. In this release, in order to expose network information timely to local AF, the L-PSA UPF may expose i.e. QoS monitoring results as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2], to the local AF.', '', 'NOTE\xa01:\tLocal PSA UPF can expose the QoS monitoring results to local AF via N6. How to deliver the information on N6 is out of the scope of the present document.', '', 'NOTE\xa02:\tSending QoS monitoring information that has not been properly integrated over time, i.e. with over-high frequency, can increase risk that the application may over-react to instantaneous radio events/conditions e.g. leading to service instability.', '']</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve"> The requirement for section 6.4.1 General, as per the 23548-i20.docx, should encompass the following points:
 1. The document must detail the provision of real-time network information, such as user path latency, which is beneficial for the application layer.
@@ -593,6 +656,37 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.4.2.1	Usage of Nupf_EventExposure to Report QoS Monitoring results&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23548-i20.docx</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1315695532325003</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['', 'The UPF may be instructed to report information about a PDU Session directly i.e. bypassing the SMF and the PCF. This reporting may target an Edge Application Server (EAS) or a local AF that itself interfaces the EAS.', '', 'Local NEF deployed at the edge may be used to support network exposure with low latency to local AF. The local NEF may support one or more of the functionalities described in clause\xa06.2.5.0 of TS\xa023.501\xa0[2]. and may support a subset of the APIs specified for capability exposure based on local policy. In order to support the network exposure locally, the local NEF shall support Nnef_AFSessionWithQoS service operation for the local AF. The local NEF selection by AF is described in clauses 6.2.5.0 and 6.3.14 of TS\xa023.501\xa0[2].', '', 'The local AF subscribes the direct notification of QoS Monitoring results from the PCF via a local NEF or NEF. If the NEF detects that it is not the most suitable NEF instance to serve the local AF request, it may redirect the AF to a local NEF instance.', '', 'NOTE\xa01:\tIf the notifications need to go via the local NEF, then the local NEF needs to be involved in order to be able to map these notifications to the URI where the AF expects to receive them.', '', 'The local AF may also use the Npcf_PolicyAuthorization_Create or Update service of the PCF directly. In this case, reporting is done directly from the UPF to the local AF.', '', "Based on the indication of direct event notification and operator's policy, the PCF includes Direct event notification method and the Target of reporting (including target local NEF address or target AF address) within the PCC rule that it provides to the SMF as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4].", '', 'The SMF sends the QoS monitoring request to the RAN and N4 rules to the L-PSA UPF. If the L-PSA UPF supports such reporting, N4 rules indicate that the QoS flow needs direct notification of QoS Monitoring. When QoS monitoring of GTP-U Path(s) is used, it is also activated if needed. This is as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2]. When N4 rules indicate that the QoS flow needs direct notification of QoS Monitoring results, upon the detection of the QoS monitoring event (e.g. when threshold for the packet delay of the QoS flow is reached as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2]), the L-PSA UPF notifies the QoS Monitoring event information to the AF (directly or via Local NEF). If the L-PSA UPF supports the Nupf_EventExposure_Notify service operation, as defined in clause\xa05.2.26 of TS\xa023.502\xa0[3], the L-PSA UPF sends the Nupf_EventExposure_Notify to the Notification Target Address indicated by the Session Reporting Rule received from the SMF. The Notification Target Address may correspond to the AF or to a local NEF. When the Notification Target Address corresponds to a Local NEF, the local NEF reports the QoS Monitoring result to the AF.', '', 'During UE mobility, the SMF may trigger the L-PSA UPF relocation/reselection and then send the N4 rules to the new L-PSA UPF to indicate the QoS flow needs direct notification of QoS Monitoring. The UE mobility may also trigger AF relocation or local NEF reselection, then the local AF should update the subscription for local exposure with QoS monitoring results possibly via local NEF, towards the PCF. This updated /new subscription is then propagated via SMF (via PCC rule updates) and then to the L-PSA UPF via N4 rules.', '', 'NOTE\xa02:\tThe new local AF can subscribe direct notification of QoS Monitoring if Edge Relocation Involving AF Change happens as described in clause\xa06.3.2.', '', '----media/image25.emf----', '', 'Figure 6.4.2.1-1: Network exposure to Edge Application Server', '', '0.\tThe UE establishes a PDU Session as defined in clause\xa04.3.2.2.1 of TS\xa023.502\xa0[3] A L-PSA UPF is assigned for this PDU Session.', '', '1.\tThe AF initiates setting up an AF session with required QoS procedure as defined in clause\xa04.15.6.6 of TS\xa023.502\xa0[3].', '', '\tIn the request, the AF may subscribe to direct notification of QoS monitoring results for the service data flow to PCF possibly via Local NEF or NEF. If so, the AF shall include the corresponding QoS monitoring parameters as defined in clause\xa06.1.3.21 of TS\xa023.503\xa0[4] and in TS\xa023.502\xa0[3].', '', '\tThe AF may also first initiate an AF Session with PCF and later subscribe to direct notification of QoS monitoring to PCF by invoking Npcf_PolicyAuthorization_Update service operation.', '', '\tThe local AF or NEF may discover a local NEF as specified in clause\xa06.2.5.0 of TS\xa023.501\xa0[2] and using parameters as specified in clause\xa06.3.14. Alternatively, if the NEF detects that it is not the most suitable NEF instance to serve the local AF request, the NEF may redirect the AF to a (more) local NEF. The NEF may use information on the L-PSA UPF for this determination.', '', '2.\tThe PCF makes the policy decision and initiates the PDU Session modification procedure as defined in clause\xa04.3.3.2 of TS\xa023.502\xa0[3], steps 1b, 3b, 4-8b.', '', '\tIf the direct notification of QoS monitoring results is subscribed, the PCF includes the Direct event notification method and the Target of reporting (including target local NEF or local AF address) in the PCC rule of the service data flow as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4].', '', '\tIf the SMF receives the Direct event notification form the PCF and the SMF determines that the L-PSA UPF supports such reporting, the SMF determines the QoS monitoring parameters based on the information received from the PCF and/or local configuration and provides them to the L-PSA UPF via N4 rules as described in clause\xa05.33.3.1 of TS\xa023.501\xa0[2]. Otherwise the SMF activates N4 reporting for the QoS monitoring results. The PCF may determine that the duplicated notification is required, i.e. both, direct notification to the AF (i.e. sent from UPF) and notification sent to the PCF/SMF is required and indicate it to the SMF using the Direct event notification method in the PCC rule as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4]. In this case, the SMF shall activate the N4 reporting together with the direct reporting to the local NEF/AF.', '', 'NOTE\xa02:\tThe details of the parameters for the control of the QoS monitoring as well as the PCF and SMF behaviour are described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4] and in clause\xa05.33.3.1 of TS\xa023.501\xa0[2], respectively.', '', '3.\tThe L-PSA UPF obtains QoS monitoring information as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2].', '', '4.\tThe L-PSA UPF sends the notification related with QoS monitoring information over Nupf_EventExposure_Notify service operation. The notification is sent to Notification Target Address that may correspond (4a) to the local AF or (4b) to the local NEF.', '', '5.\tIf Local NEF is used, it reports the real-time network information to local AF by invoking Nnef_EventExposure_Notify service operation.', '', '6.\tDue to e.g. UE mobility, the PSA relocation and/or EAS relocation may happen as described in clause\xa06.3. During the PSA and/or EAS relocation (if the event was subscribed e.g. as in step\xa01), the SMF notifies the (local) NEF or the AF with the PSA and/or EAS relocation, and the AF may trigger a new L-NEF discovery as in step\xa01. During this step, the application mechanisms may involve a new AF for this session.', '', '7.\tThe new AF may initiate a new AF session to (re-)subscribe the direct notification of QoS monitoring as described in steps 1-4.', '', '8.\tThe old AF revokes the AF session.', '', 'NOTE\xa03:\tStep\xa08 can take place before step\xa07.', '']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details.
+### 6.4.2.1 Usage of Nupf_EventExposure to Report QoS Monitoring Results
+Based on the indication of direct event notification and operator's policy, the Policy Control Function (PCF) includes the Direct event notification method and the Target of reporting (including target local NEF or local AF address) in the Policy Control Channel (PCC) rule of the service data flow as described in clause 6.1.3.21 of TS 23.503 [4].
+If the Notification Target Address corresponds to a Local NEF, the Local NEF reports the real-time network information to the local AF by invoking the Nnef_EventExposure_Notify service operation.
+During UE mobility, the Service Mobility Anchor (SMA) relocation and/or Edge Application Server (EAS) relocation may happen. In this case, the Service Mobility Anchor (SMA) notifies the Local NEF with the SMA and/or EAS relocation, and the Local NEF may trigger a new Local NEF discovery as described in step 1. During this step, the application mechanisms may involve a new AF for this session.
+The new AF may initiate a new AF session to (re-)subscribe the direct notification of QoS monitoring as described in steps 1-4.
+The old AF revokes the AF session.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
